--- a/test/adaptive/results/score_ragas_adaptive_20241226174506_vdb1000100_normal.xlsx
+++ b/test/adaptive/results/score_ragas_adaptive_20241226174506_vdb1000100_normal.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Features\Documents\PMB-UNDIKSHA\va-pmb-undiksha\test\adaptive\results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0308213C-B1BE-4DCC-8515-E630C53715EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Evaluation" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="207">
   <si>
     <t>question</t>
   </si>
@@ -922,8 +928,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -987,13 +993,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1031,7 +1045,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1065,6 +1079,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1099,9 +1114,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1274,14 +1290,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1310,7 +1328,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1324,7 +1342,7 @@
         <v>158</v>
       </c>
       <c r="E2">
-        <v>0.9999999999</v>
+        <v>0.99999999989999999</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1333,13 +1351,13 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>0.860673623286731</v>
+        <v>0.86067362328673103</v>
       </c>
       <c r="I2">
-        <v>0.9651684057966827</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>0.96516840579668273</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1353,7 +1371,7 @@
         <v>159</v>
       </c>
       <c r="E3">
-        <v>0.9999999999</v>
+        <v>0.99999999989999999</v>
       </c>
       <c r="F3">
         <v>0.75</v>
@@ -1362,13 +1380,13 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>0.9276687028867961</v>
+        <v>0.92766870288679615</v>
       </c>
       <c r="I3">
-        <v>0.919417175696699</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>0.91941717569669901</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1382,22 +1400,22 @@
         <v>160</v>
       </c>
       <c r="E4">
-        <v>0.9999999999</v>
+        <v>0.99999999989999999</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4">
-        <v>0.8953182236240727</v>
+        <v>0.89531822362407265</v>
       </c>
       <c r="I4">
-        <v>0.8904962225476848</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>0.89049622254768479</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1411,7 +1429,7 @@
         <v>161</v>
       </c>
       <c r="E5">
-        <v>0.9999999999</v>
+        <v>0.99999999989999999</v>
       </c>
       <c r="F5">
         <v>0.5</v>
@@ -1420,13 +1438,13 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>0.8731718592731655</v>
+        <v>0.87317185927316554</v>
       </c>
       <c r="I5">
-        <v>0.8432929647932914</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>0.84329296479329141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1440,7 +1458,7 @@
         <v>162</v>
       </c>
       <c r="E6">
-        <v>0.9999999999</v>
+        <v>0.99999999989999999</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1449,13 +1467,13 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>0.8801839393933357</v>
+        <v>0.88018393939333572</v>
       </c>
       <c r="I6">
-        <v>0.9700459848233339</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>0.97004598482333393</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1484,7 +1502,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1498,7 +1516,7 @@
         <v>164</v>
       </c>
       <c r="E8">
-        <v>0.9999999999</v>
+        <v>0.99999999989999999</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1507,13 +1525,13 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>0.8452490661010373</v>
+        <v>0.84524906610103734</v>
       </c>
       <c r="I8">
-        <v>0.9613122665002594</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>0.96131226650025936</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1527,22 +1545,22 @@
         <v>165</v>
       </c>
       <c r="E9">
-        <v>0.9999999999</v>
+        <v>0.99999999989999999</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9">
-        <v>0.8545680179921812</v>
+        <v>0.85456801799218118</v>
       </c>
       <c r="I9">
         <v>0.8803086711397119</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1556,7 +1574,7 @@
         <v>166</v>
       </c>
       <c r="E10">
-        <v>0.9999999999</v>
+        <v>0.99999999989999999</v>
       </c>
       <c r="F10">
         <v>0.5</v>
@@ -1565,13 +1583,13 @@
         <v>1</v>
       </c>
       <c r="H10">
-        <v>0.910300409089277</v>
+        <v>0.91030040908927701</v>
       </c>
       <c r="I10">
-        <v>0.8525751022473192</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>0.85257510224731925</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1585,22 +1603,22 @@
         <v>167</v>
       </c>
       <c r="E11">
-        <v>0.9999999999</v>
+        <v>0.99999999989999999</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11">
-        <v>0.8590990498505252</v>
+        <v>0.85909904985052521</v>
       </c>
       <c r="I11">
         <v>0.8814414291042979</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1614,7 +1632,7 @@
         <v>168</v>
       </c>
       <c r="E12">
-        <v>0.9999999999</v>
+        <v>0.99999999989999999</v>
       </c>
       <c r="F12">
         <v>0.5</v>
@@ -1623,13 +1641,13 @@
         <v>0.5</v>
       </c>
       <c r="H12">
-        <v>0.896001745909297</v>
+        <v>0.89600174590929704</v>
       </c>
       <c r="I12">
-        <v>0.7240004364523243</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>0.72400043645232426</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1643,7 +1661,7 @@
         <v>169</v>
       </c>
       <c r="E13">
-        <v>0.9999999999</v>
+        <v>0.99999999989999999</v>
       </c>
       <c r="F13">
         <v>0.5</v>
@@ -1652,13 +1670,13 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <v>0.7864838476113912</v>
+        <v>0.78648384761139123</v>
       </c>
       <c r="I13">
-        <v>0.8216209618778478</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>0.82162096187784783</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1672,7 +1690,7 @@
         <v>170</v>
       </c>
       <c r="E14">
-        <v>0.9999999999</v>
+        <v>0.99999999989999999</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1684,10 +1702,10 @@
         <v>0.8814850987911006</v>
       </c>
       <c r="I14">
-        <v>0.9703712746727752</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>0.97037127467277517</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -1701,7 +1719,7 @@
         <v>169</v>
       </c>
       <c r="E15">
-        <v>0.9999999999</v>
+        <v>0.99999999989999999</v>
       </c>
       <c r="F15">
         <v>0.5</v>
@@ -1710,13 +1728,13 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <v>0.9157228944474533</v>
+        <v>0.91572289444745325</v>
       </c>
       <c r="I15">
-        <v>0.8539307235868633</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>0.85393072358686328</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -1730,7 +1748,7 @@
         <v>171</v>
       </c>
       <c r="E16">
-        <v>0.9999999999</v>
+        <v>0.99999999989999999</v>
       </c>
       <c r="F16">
         <v>0.5</v>
@@ -1739,13 +1757,13 @@
         <v>0.5</v>
       </c>
       <c r="H16">
-        <v>0.8865934504269068</v>
+        <v>0.88659345042690685</v>
       </c>
       <c r="I16">
-        <v>0.7216483625817267</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>0.72164836258172671</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1759,22 +1777,22 @@
         <v>172</v>
       </c>
       <c r="E17">
-        <v>0.9999999999</v>
+        <v>0.99999999989999999</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.6666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="H17">
-        <v>0.9330309089446568</v>
+        <v>0.93303090894465679</v>
       </c>
       <c r="I17">
-        <v>0.8999243938778309</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>0.89992439387783085</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -1788,7 +1806,7 @@
         <v>173</v>
       </c>
       <c r="E18">
-        <v>0.9999999999</v>
+        <v>0.99999999989999999</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -1797,13 +1815,13 @@
         <v>1</v>
       </c>
       <c r="H18">
-        <v>0.9466255387648529</v>
+        <v>0.94662553876485289</v>
       </c>
       <c r="I18">
-        <v>0.9866563846662132</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>0.98665638466621319</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -1817,7 +1835,7 @@
         <v>174</v>
       </c>
       <c r="E19">
-        <v>0.9999999999</v>
+        <v>0.99999999989999999</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -1826,13 +1844,13 @@
         <v>1</v>
       </c>
       <c r="H19">
-        <v>0.8910520927733142</v>
+        <v>0.89105209277331421</v>
       </c>
       <c r="I19">
-        <v>0.9727630231683285</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>0.97276302316832852</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -1846,7 +1864,7 @@
         <v>175</v>
       </c>
       <c r="E20">
-        <v>0.9999999999</v>
+        <v>0.99999999989999999</v>
       </c>
       <c r="F20">
         <v>0.5</v>
@@ -1855,13 +1873,13 @@
         <v>1</v>
       </c>
       <c r="H20">
-        <v>0.8774408239401268</v>
+        <v>0.87744082394012679</v>
       </c>
       <c r="I20">
         <v>0.8443602059600317</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -1875,7 +1893,7 @@
         <v>176</v>
       </c>
       <c r="E21">
-        <v>0.9999999999</v>
+        <v>0.99999999989999999</v>
       </c>
       <c r="F21">
         <v>0.5</v>
@@ -1884,13 +1902,13 @@
         <v>1</v>
       </c>
       <c r="H21">
-        <v>0.9345972679555867</v>
+        <v>0.93459726795558673</v>
       </c>
       <c r="I21">
-        <v>0.8586493169638967</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>0.85864931696389668</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -1904,7 +1922,7 @@
         <v>177</v>
       </c>
       <c r="E22">
-        <v>0.9999999999</v>
+        <v>0.99999999989999999</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -1916,10 +1934,10 @@
         <v>0.8431284387606951</v>
       </c>
       <c r="I22">
-        <v>0.9607821096651737</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>0.96078210966517374</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -1933,7 +1951,7 @@
         <v>178</v>
       </c>
       <c r="E23">
-        <v>0.9999999999</v>
+        <v>0.99999999989999999</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -1942,13 +1960,13 @@
         <v>1</v>
       </c>
       <c r="H23">
-        <v>0.8807801562443022</v>
+        <v>0.88078015624430217</v>
       </c>
       <c r="I23">
-        <v>0.9701950390360755</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>0.97019503903607551</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -1962,7 +1980,7 @@
         <v>179</v>
       </c>
       <c r="E24">
-        <v>0.9999999999</v>
+        <v>0.99999999989999999</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -1971,13 +1989,13 @@
         <v>1</v>
       </c>
       <c r="H24">
-        <v>0.9455265265255962</v>
+        <v>0.94552652652559621</v>
       </c>
       <c r="I24">
-        <v>0.986381631606399</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>0.98638163160639902</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -1991,7 +2009,7 @@
         <v>180</v>
       </c>
       <c r="E25">
-        <v>0.9999999999</v>
+        <v>0.99999999989999999</v>
       </c>
       <c r="F25">
         <v>0.5</v>
@@ -2000,13 +2018,13 @@
         <v>1</v>
       </c>
       <c r="H25">
-        <v>0.8791203348475</v>
+        <v>0.87912033484749996</v>
       </c>
       <c r="I25">
-        <v>0.844780083686875</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>0.84478008368687496</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -2029,13 +2047,13 @@
         <v>1</v>
       </c>
       <c r="H26">
-        <v>0.8853810201775413</v>
+        <v>0.88538102017754128</v>
       </c>
       <c r="I26">
-        <v>0.4713452550443853</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>0.47134525504438529</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -2049,7 +2067,7 @@
         <v>182</v>
       </c>
       <c r="E27">
-        <v>0.9999999999</v>
+        <v>0.99999999989999999</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -2058,13 +2076,13 @@
         <v>1</v>
       </c>
       <c r="H27">
-        <v>0.8855731115517118</v>
+        <v>0.88557311155171181</v>
       </c>
       <c r="I27">
-        <v>0.971393277862928</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>0.97139327786292795</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -2078,7 +2096,7 @@
         <v>183</v>
       </c>
       <c r="E28">
-        <v>0.9999999999</v>
+        <v>0.99999999989999999</v>
       </c>
       <c r="F28">
         <v>0.5</v>
@@ -2087,13 +2105,13 @@
         <v>1</v>
       </c>
       <c r="H28">
-        <v>0.9423997128634077</v>
+        <v>0.94239971286340773</v>
       </c>
       <c r="I28">
-        <v>0.860599928190852</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>0.86059992819085196</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -2107,7 +2125,7 @@
         <v>184</v>
       </c>
       <c r="E29">
-        <v>0.9999999999</v>
+        <v>0.99999999989999999</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -2116,13 +2134,13 @@
         <v>1</v>
       </c>
       <c r="H29">
-        <v>0.9105129362452279</v>
+        <v>0.91051293624522789</v>
       </c>
       <c r="I29">
-        <v>0.7276282340363069</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>0.72762823403630694</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -2142,16 +2160,16 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
       <c r="I30">
-        <v>0.08333333333333333</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -2165,7 +2183,7 @@
         <v>186</v>
       </c>
       <c r="E31">
-        <v>0.9999999999</v>
+        <v>0.99999999989999999</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -2177,10 +2195,10 @@
         <v>0.8525427503541968</v>
       </c>
       <c r="I31">
-        <v>0.9631356875635492</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>0.96313568756354917</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -2194,7 +2212,7 @@
         <v>187</v>
       </c>
       <c r="E32">
-        <v>0.9999999999</v>
+        <v>0.99999999989999999</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -2209,7 +2227,7 @@
         <v>0.9744284845911656</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -2223,7 +2241,7 @@
         <v>188</v>
       </c>
       <c r="E33">
-        <v>0.9999999999</v>
+        <v>0.99999999989999999</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -2232,13 +2250,13 @@
         <v>1</v>
       </c>
       <c r="H33">
-        <v>0.886837796584565</v>
+        <v>0.88683779658456496</v>
       </c>
       <c r="I33">
-        <v>0.9717094491211412</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>0.97170944912114121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -2252,7 +2270,7 @@
         <v>189</v>
       </c>
       <c r="E34">
-        <v>0.9999999999</v>
+        <v>0.99999999989999999</v>
       </c>
       <c r="F34">
         <v>0.5</v>
@@ -2267,7 +2285,7 @@
         <v>0.624999999975</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -2281,10 +2299,10 @@
         <v>190</v>
       </c>
       <c r="E35">
-        <v>0.9999999999</v>
+        <v>0.99999999989999999</v>
       </c>
       <c r="F35">
-        <v>0.4444444444444444</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -2293,10 +2311,10 @@
         <v>0.8962829275781562</v>
       </c>
       <c r="I35">
-        <v>0.8351818429806502</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>0.83518184298065024</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -2310,7 +2328,7 @@
         <v>191</v>
       </c>
       <c r="E36">
-        <v>0.9999999999</v>
+        <v>0.99999999989999999</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -2319,13 +2337,13 @@
         <v>1</v>
       </c>
       <c r="H36">
-        <v>0.8765330701735229</v>
+        <v>0.87653307017352289</v>
       </c>
       <c r="I36">
-        <v>0.9691332675183807</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>0.96913326751838069</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -2339,7 +2357,7 @@
         <v>192</v>
       </c>
       <c r="E37">
-        <v>0.9999999999</v>
+        <v>0.99999999989999999</v>
       </c>
       <c r="F37">
         <v>0.4</v>
@@ -2348,13 +2366,13 @@
         <v>1</v>
       </c>
       <c r="H37">
-        <v>0.8725494772130221</v>
+        <v>0.87254947721302212</v>
       </c>
       <c r="I37">
-        <v>0.8181373692782555</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>0.81813736927825553</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -2368,19 +2386,19 @@
         <v>193</v>
       </c>
       <c r="E38">
-        <v>0.9999999999</v>
+        <v>0.99999999989999999</v>
       </c>
       <c r="F38">
-        <v>0.1666666666666667</v>
+        <v>0.16666666666666671</v>
       </c>
       <c r="H38">
         <v>0.8928525679181486</v>
       </c>
       <c r="I38">
-        <v>0.6865064114949385</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>0.68650641149493852</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>46</v>
       </c>
@@ -2394,22 +2412,22 @@
         <v>194</v>
       </c>
       <c r="E39">
-        <v>0.9999999999</v>
+        <v>0.99999999989999999</v>
       </c>
       <c r="F39">
-        <v>0.6666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G39">
         <v>1</v>
       </c>
       <c r="H39">
-        <v>0.9505867090641877</v>
+        <v>0.95058670906418774</v>
       </c>
       <c r="I39">
-        <v>0.9043133439077136</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>0.90431334390771356</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>47</v>
       </c>
@@ -2423,7 +2441,7 @@
         <v>195</v>
       </c>
       <c r="E40">
-        <v>0.9999999999</v>
+        <v>0.99999999989999999</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -2432,13 +2450,13 @@
         <v>1</v>
       </c>
       <c r="H40">
-        <v>0.8862713400792371</v>
+        <v>0.88627134007923714</v>
       </c>
       <c r="I40">
-        <v>0.9715678349948093</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>0.97156783499480925</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>48</v>
       </c>
@@ -2452,7 +2470,7 @@
         <v>196</v>
       </c>
       <c r="E41">
-        <v>0.9999999999</v>
+        <v>0.99999999989999999</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -2467,7 +2485,7 @@
         <v>0.9823526805439613</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>49</v>
       </c>
@@ -2481,7 +2499,7 @@
         <v>197</v>
       </c>
       <c r="E42">
-        <v>0.9999999999</v>
+        <v>0.99999999989999999</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -2493,10 +2511,10 @@
         <v>0.9695762024562814</v>
       </c>
       <c r="I42">
-        <v>0.9923940505890704</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>0.99239405058907038</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>50</v>
       </c>
@@ -2510,7 +2528,7 @@
         <v>198</v>
       </c>
       <c r="E43">
-        <v>0.9999999999</v>
+        <v>0.99999999989999999</v>
       </c>
       <c r="F43">
         <v>0.5</v>
@@ -2519,13 +2537,13 @@
         <v>1</v>
       </c>
       <c r="H43">
-        <v>0.9544831895884521</v>
+        <v>0.95448318958845213</v>
       </c>
       <c r="I43">
-        <v>0.8636207973721131</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>0.86362079737211306</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>51</v>
       </c>
@@ -2539,7 +2557,7 @@
         <v>199</v>
       </c>
       <c r="E44">
-        <v>0.9999999999</v>
+        <v>0.99999999989999999</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -2548,13 +2566,13 @@
         <v>1</v>
       </c>
       <c r="H44">
-        <v>0.9514411297337085</v>
+        <v>0.95144112973370853</v>
       </c>
       <c r="I44">
-        <v>0.9878602824084272</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>0.98786028240842716</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>52</v>
       </c>
@@ -2568,7 +2586,7 @@
         <v>200</v>
       </c>
       <c r="E45">
-        <v>0.9999999999</v>
+        <v>0.99999999989999999</v>
       </c>
       <c r="F45">
         <v>0.5</v>
@@ -2577,13 +2595,13 @@
         <v>1</v>
       </c>
       <c r="H45">
-        <v>0.9176419950482601</v>
+        <v>0.91764199504826005</v>
       </c>
       <c r="I45">
-        <v>0.854410498737065</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>0.85441049873706498</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>53</v>
       </c>
@@ -2597,7 +2615,7 @@
         <v>201</v>
       </c>
       <c r="E46">
-        <v>0.9999999999</v>
+        <v>0.99999999989999999</v>
       </c>
       <c r="F46">
         <v>0.5</v>
@@ -2606,13 +2624,13 @@
         <v>1</v>
       </c>
       <c r="H46">
-        <v>0.9526155075560143</v>
+        <v>0.95261550755601432</v>
       </c>
       <c r="I46">
-        <v>0.8631538768640036</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>0.86315387686400358</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>54</v>
       </c>
@@ -2626,7 +2644,7 @@
         <v>202</v>
       </c>
       <c r="E47">
-        <v>0.9999999999</v>
+        <v>0.99999999989999999</v>
       </c>
       <c r="F47">
         <v>0.6</v>
@@ -2635,13 +2653,13 @@
         <v>1</v>
       </c>
       <c r="H47">
-        <v>0.776382350772311</v>
+        <v>0.77638235077231099</v>
       </c>
       <c r="I47">
         <v>0.8440955876680778</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>55</v>
       </c>
@@ -2655,7 +2673,7 @@
         <v>203</v>
       </c>
       <c r="E48">
-        <v>0.9999999999</v>
+        <v>0.99999999989999999</v>
       </c>
       <c r="F48">
         <v>0.75</v>
@@ -2664,13 +2682,13 @@
         <v>1</v>
       </c>
       <c r="H48">
-        <v>0.8621385279311262</v>
+        <v>0.86213852793112622</v>
       </c>
       <c r="I48">
-        <v>0.9030346319577816</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>0.90303463195778155</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>56</v>
       </c>
@@ -2684,22 +2702,22 @@
         <v>204</v>
       </c>
       <c r="E49">
-        <v>0.9999999999</v>
+        <v>0.99999999989999999</v>
       </c>
       <c r="F49">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G49">
         <v>0.5</v>
       </c>
       <c r="H49">
-        <v>0.8486662683261154</v>
+        <v>0.84866626832611536</v>
       </c>
       <c r="I49">
-        <v>0.6704999003898622</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>0.67049990038986218</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>57</v>
       </c>
@@ -2713,7 +2731,7 @@
         <v>205</v>
       </c>
       <c r="E50">
-        <v>0.9999999999</v>
+        <v>0.99999999989999999</v>
       </c>
       <c r="F50">
         <v>0.5</v>
@@ -2725,10 +2743,10 @@
         <v>0.8366722865303271</v>
       </c>
       <c r="I50">
-        <v>0.8341680716075818</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>0.83416807160758177</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>58</v>
       </c>
@@ -2757,7 +2775,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>59</v>
       </c>
@@ -2765,19 +2783,19 @@
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53">
-        <v>0.9199999999080001</v>
+        <v>0.91999999990800008</v>
       </c>
       <c r="F53">
-        <v>0.6622222222222223</v>
+        <v>0.66222222222222227</v>
       </c>
       <c r="G53">
-        <v>0.9489795918367347</v>
+        <v>0.94897959183673475</v>
       </c>
       <c r="H53">
-        <v>0.8207777511185186</v>
+        <v>0.82077775111851858</v>
       </c>
       <c r="I53">
-        <v>0.8379948912713689</v>
+        <v>0.83799489127136895</v>
       </c>
     </row>
   </sheetData>
